--- a/Documentation/Requirements Table Rev2.xlsx
+++ b/Documentation/Requirements Table Rev2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randu\Google Drive\Classwork\CSE3310\FundamentalsPokerGame\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40550124-FFE1-4704-86EE-60E3E9D1BD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B670CE9-5EFF-4529-8D20-D32034754151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="0" windowWidth="23895" windowHeight="21000" xr2:uid="{9F63A9F9-7C5B-4B89-AA9A-0F55721D7DEB}"/>
+    <workbookView xWindow="11970" yWindow="0" windowWidth="22080" windowHeight="21000" xr2:uid="{9F63A9F9-7C5B-4B89-AA9A-0F55721D7DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>A royal flush is a straight flush containing 10, J, Q, K and A from the same suit</t>
   </si>
   <si>
-    <t>The deck shall be shuffled by the dealer three times at the beginning of each hand</t>
-  </si>
-  <si>
     <t>Dealer</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
   </si>
   <si>
     <t>Card::Card_value</t>
-  </si>
-  <si>
-    <t>Dealer::shuffle()</t>
   </si>
   <si>
     <t>Dealer::deal()</t>
@@ -389,6 +383,12 @@
   </si>
   <si>
     <t>Player::calculate_handvalue() &amp; Player::better_hand()</t>
+  </si>
+  <si>
+    <t>Game::shuffle_deck()</t>
+  </si>
+  <si>
+    <t>The deck shall be shuffled by the game three times at the beginning of each hand</t>
   </si>
 </sst>
 </file>
@@ -758,13 +758,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -781,6 +774,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F172631C-DAD8-4B9D-83D0-9647EE7C2F7D}" name="Table1" displayName="Table1" ref="A1:H62" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F172631C-DAD8-4B9D-83D0-9647EE7C2F7D}" name="Table1" displayName="Table1" ref="A1:H62" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H62" xr:uid="{A4B7DCE6-B54B-42E6-97CB-19C3C7468B67}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E3041E8D-CC89-4D3F-87D8-5AD3D54ACC50}" name="REQID" dataDxfId="7"/>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44B577E-68CC-4E7A-8A29-E66A7405A411}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,22 +1171,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="8"/>
     </row>
@@ -1195,20 +1195,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1241,20 +1241,20 @@
         <v>3.01</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -1263,20 +1263,20 @@
         <v>3.02</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1285,20 +1285,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -1307,20 +1307,20 @@
         <v>4.01</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -1329,20 +1329,20 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -1351,20 +1351,20 @@
         <v>4.03</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -1373,20 +1373,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1395,20 +1395,20 @@
         <v>5.01</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1417,20 +1417,20 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -1439,21 +1439,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1461,21 +1461,21 @@
         <v>7.01</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,21 +1483,21 @@
         <v>7.02</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,21 +1505,21 @@
         <v>7.03</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1527,23 +1527,23 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,20 +1551,20 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -1573,22 +1573,22 @@
         <v>9.01</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -1597,20 +1597,20 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -1619,22 +1619,22 @@
         <v>10.01</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -1643,20 +1643,20 @@
         <v>10.02</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -1665,22 +1665,22 @@
         <v>10.029999999999999</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1689,20 +1689,20 @@
         <v>10.039999999999999</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -1711,20 +1711,20 @@
         <v>10.050000000000001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -1733,22 +1733,22 @@
         <v>10.06</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -1757,22 +1757,22 @@
         <v>10.07</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -1781,22 +1781,22 @@
         <v>10.08</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -1805,22 +1805,22 @@
         <v>10.09</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -1829,20 +1829,20 @@
         <v>10.1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -1851,22 +1851,22 @@
         <v>10.11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -1875,20 +1875,20 @@
         <v>10.119999999999999</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -1897,22 +1897,22 @@
         <v>10.130000000000001</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -1921,20 +1921,20 @@
         <v>10.14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -1943,20 +1943,20 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -1965,20 +1965,20 @@
         <v>11.01</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -1987,20 +1987,20 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -2009,17 +2009,17 @@
         <v>12.01</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="8"/>
@@ -2029,20 +2029,20 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H40" s="8"/>
     </row>
@@ -2051,20 +2051,20 @@
         <v>13.01</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2073,20 +2073,20 @@
         <v>13.02</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="8"/>
     </row>
@@ -2095,20 +2095,20 @@
         <v>13.03</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" s="8"/>
     </row>
@@ -2117,20 +2117,20 @@
         <v>13.04</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -2139,20 +2139,20 @@
         <v>13.05</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -2161,20 +2161,20 @@
         <v>13.06</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -2183,20 +2183,20 @@
         <v>13.07</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H47" s="8"/>
     </row>
@@ -2205,20 +2205,20 @@
         <v>13.08</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H48" s="8"/>
     </row>
@@ -2227,20 +2227,20 @@
         <v>13.09</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -2249,20 +2249,20 @@
         <v>13.1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2271,20 +2271,20 @@
         <v>13.11</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2293,20 +2293,20 @@
         <v>13.12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -2315,20 +2315,20 @@
         <v>13.13</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -2337,20 +2337,20 @@
         <v>13.14</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -2359,20 +2359,20 @@
         <v>13.15</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2381,20 +2381,20 @@
         <v>13.16</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -2403,20 +2403,20 @@
         <v>13.17</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -2425,20 +2425,20 @@
         <v>13.18</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -2447,20 +2447,20 @@
         <v>13.19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2469,20 +2469,20 @@
         <v>13.2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -2491,40 +2491,40 @@
         <v>13.21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H62" s="16"/>
     </row>
